--- a/Thesis/ModelForSensitivity/layoutSetup_baseCase3/Inputs/TRs/3600-0.8-20-4.xlsx
+++ b/Thesis/ModelForSensitivity/layoutSetup_baseCase3/Inputs/TRs/3600-0.8-20-4.xlsx
@@ -40,13 +40,13 @@
     <t>requestCost</t>
   </si>
   <si>
+    <t>C,D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
     <t>A,C</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>C,D</t>
   </si>
   <si>
     <t>A,B</t>
@@ -441,22 +441,22 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>275</v>
+        <v>448</v>
       </c>
       <c r="C2">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="E2">
-        <v>275</v>
+        <v>448</v>
       </c>
       <c r="F2">
-        <v>577</v>
+        <v>597</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
@@ -467,103 +467,103 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B3">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="C3">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D3">
+        <v>41</v>
+      </c>
+      <c r="E3">
+        <v>467</v>
+      </c>
+      <c r="F3">
+        <v>1654</v>
+      </c>
+      <c r="G3" t="s">
         <v>9</v>
       </c>
-      <c r="E3">
-        <v>454</v>
-      </c>
-      <c r="F3">
-        <v>729</v>
-      </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
       <c r="H3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>503</v>
+        <v>733</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E4">
-        <v>503</v>
+        <v>733</v>
       </c>
       <c r="F4">
-        <v>784</v>
+        <v>839</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>674</v>
+        <v>1410</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D5">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="E5">
-        <v>674</v>
+        <v>1410</v>
       </c>
       <c r="F5">
-        <v>2467</v>
+        <v>1559</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
+        <v>19</v>
+      </c>
+      <c r="B6">
+        <v>1661</v>
+      </c>
+      <c r="C6">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>1661</v>
+      </c>
+      <c r="F6">
+        <v>2699</v>
+      </c>
+      <c r="G6" t="s">
         <v>9</v>
-      </c>
-      <c r="B6">
-        <v>730</v>
-      </c>
-      <c r="C6">
-        <v>28</v>
-      </c>
-      <c r="D6">
-        <v>19</v>
-      </c>
-      <c r="E6">
-        <v>730</v>
-      </c>
-      <c r="F6">
-        <v>992</v>
-      </c>
-      <c r="G6" t="s">
-        <v>10</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -571,25 +571,25 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>738</v>
+        <v>1898</v>
       </c>
       <c r="C7">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E7">
-        <v>738</v>
+        <v>1898</v>
       </c>
       <c r="F7">
-        <v>1989</v>
+        <v>2047</v>
       </c>
       <c r="G7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -597,22 +597,22 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>838</v>
+        <v>1939</v>
       </c>
       <c r="C8">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="E8">
-        <v>838</v>
+        <v>1939</v>
       </c>
       <c r="F8">
-        <v>1108</v>
+        <v>3399</v>
       </c>
       <c r="G8" t="s">
         <v>11</v>
@@ -623,103 +623,103 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>1069</v>
+        <v>1955</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D9">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>1069</v>
+        <v>1955</v>
       </c>
       <c r="F9">
-        <v>1256</v>
+        <v>2102</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10">
-        <v>1136</v>
+        <v>2274</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D10">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E10">
-        <v>1136</v>
+        <v>2274</v>
       </c>
       <c r="F10">
-        <v>1404</v>
+        <v>2401</v>
       </c>
       <c r="G10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11">
-        <v>1144</v>
+        <v>2303</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D11">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="E11">
-        <v>1144</v>
+        <v>2303</v>
       </c>
       <c r="F11">
-        <v>1431</v>
+        <v>2439</v>
       </c>
       <c r="G11" t="s">
         <v>9</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>1349</v>
+        <v>2335</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D12">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="E12">
-        <v>1349</v>
+        <v>2335</v>
       </c>
       <c r="F12">
-        <v>1632</v>
+        <v>2469</v>
       </c>
       <c r="G12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -727,51 +727,51 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B13">
-        <v>1465</v>
+        <v>2424</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D13">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1465</v>
+        <v>2424</v>
       </c>
       <c r="F13">
-        <v>3110</v>
+        <v>2535</v>
       </c>
       <c r="G13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14">
-        <v>1486</v>
+        <v>2798</v>
       </c>
       <c r="C14">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="D14">
+        <v>34</v>
+      </c>
+      <c r="E14">
+        <v>2798</v>
+      </c>
+      <c r="F14">
+        <v>2903</v>
+      </c>
+      <c r="G14" t="s">
         <v>10</v>
-      </c>
-      <c r="E14">
-        <v>1486</v>
-      </c>
-      <c r="F14">
-        <v>1660</v>
-      </c>
-      <c r="G14" t="s">
-        <v>11</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -779,51 +779,51 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B15">
-        <v>1737</v>
+        <v>2837</v>
       </c>
       <c r="C15">
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <v>40</v>
+      </c>
+      <c r="E15">
+        <v>2837</v>
+      </c>
+      <c r="F15">
+        <v>2974</v>
+      </c>
+      <c r="G15" t="s">
         <v>11</v>
       </c>
-      <c r="D15">
-        <v>25</v>
-      </c>
-      <c r="E15">
-        <v>1737</v>
-      </c>
-      <c r="F15">
-        <v>1891</v>
-      </c>
-      <c r="G15" t="s">
-        <v>9</v>
-      </c>
       <c r="H15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B16">
-        <v>1768</v>
+        <v>2925</v>
       </c>
       <c r="C16">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D16">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E16">
-        <v>1768</v>
+        <v>2925</v>
       </c>
       <c r="F16">
-        <v>2046</v>
+        <v>4168</v>
       </c>
       <c r="G16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -834,22 +834,22 @@
         <v>14</v>
       </c>
       <c r="B17">
-        <v>2074</v>
+        <v>2991</v>
       </c>
       <c r="C17">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D17">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E17">
-        <v>2074</v>
+        <v>2991</v>
       </c>
       <c r="F17">
-        <v>3425</v>
+        <v>3079</v>
       </c>
       <c r="G17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -860,103 +860,103 @@
         <v>2</v>
       </c>
       <c r="B18">
-        <v>2354</v>
+        <v>3098</v>
       </c>
       <c r="C18">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="E18">
-        <v>2354</v>
+        <v>3098</v>
       </c>
       <c r="F18">
-        <v>2554</v>
+        <v>4173</v>
       </c>
       <c r="G18" t="s">
         <v>9</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>2496</v>
+        <v>3138</v>
       </c>
       <c r="C19">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D19">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E19">
-        <v>2496</v>
+        <v>3138</v>
       </c>
       <c r="F19">
-        <v>2795</v>
+        <v>3227</v>
       </c>
       <c r="G19" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B20">
-        <v>2673</v>
+        <v>3321</v>
       </c>
       <c r="C20">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D20">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E20">
-        <v>2673</v>
+        <v>3321</v>
       </c>
       <c r="F20">
-        <v>4324</v>
+        <v>4251</v>
       </c>
       <c r="G20" t="s">
         <v>11</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B21">
-        <v>3222</v>
+        <v>3591</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D21">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>3222</v>
+        <v>3591</v>
       </c>
       <c r="F21">
-        <v>4787</v>
+        <v>3744</v>
       </c>
       <c r="G21" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
